--- a/Visualization/results/CSDS_2979_CD1/29791011csdsDAY3Openfield2024-12-06171458trace/29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
+++ b/Visualization/results/CSDS_2979_CD1/29791011csdsDAY3Openfield2024-12-06171458trace/29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q223"/>
+  <dimension ref="A1:T223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,21 @@
           <t>transient_id</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>source_path</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>source_abs_path</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -578,6 +593,21 @@
       <c r="Q2" t="n">
         <v>1075</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -637,6 +667,21 @@
       <c r="Q3" t="n">
         <v>1076</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -696,6 +741,21 @@
       <c r="Q4" t="n">
         <v>1077</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,6 +815,21 @@
       <c r="Q5" t="n">
         <v>1078</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -814,6 +889,21 @@
       <c r="Q6" t="n">
         <v>1079</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -873,6 +963,21 @@
       <c r="Q7" t="n">
         <v>1080</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -932,6 +1037,21 @@
       <c r="Q8" t="n">
         <v>1081</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -991,6 +1111,21 @@
       <c r="Q9" t="n">
         <v>1082</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1050,6 +1185,21 @@
       <c r="Q10" t="n">
         <v>1083</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1109,6 +1259,21 @@
       <c r="Q11" t="n">
         <v>1084</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1168,6 +1333,21 @@
       <c r="Q12" t="n">
         <v>1085</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1227,6 +1407,21 @@
       <c r="Q13" t="n">
         <v>1086</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1286,6 +1481,21 @@
       <c r="Q14" t="n">
         <v>1087</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1345,6 +1555,21 @@
       <c r="Q15" t="n">
         <v>1088</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1404,6 +1629,21 @@
       <c r="Q16" t="n">
         <v>1089</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1463,6 +1703,21 @@
       <c r="Q17" t="n">
         <v>1090</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1522,6 +1777,21 @@
       <c r="Q18" t="n">
         <v>1091</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1581,6 +1851,21 @@
       <c r="Q19" t="n">
         <v>1092</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1640,6 +1925,21 @@
       <c r="Q20" t="n">
         <v>1093</v>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1699,6 +1999,21 @@
       <c r="Q21" t="n">
         <v>1094</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1758,6 +2073,21 @@
       <c r="Q22" t="n">
         <v>1095</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1817,6 +2147,21 @@
       <c r="Q23" t="n">
         <v>1096</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1876,6 +2221,21 @@
       <c r="Q24" t="n">
         <v>1097</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1935,6 +2295,21 @@
       <c r="Q25" t="n">
         <v>1098</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1994,6 +2369,21 @@
       <c r="Q26" t="n">
         <v>1099</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2053,6 +2443,21 @@
       <c r="Q27" t="n">
         <v>1100</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,6 +2517,21 @@
       <c r="Q28" t="n">
         <v>1101</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2171,6 +2591,21 @@
       <c r="Q29" t="n">
         <v>1102</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2230,6 +2665,21 @@
       <c r="Q30" t="n">
         <v>1103</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2289,6 +2739,21 @@
       <c r="Q31" t="n">
         <v>1104</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2348,6 +2813,21 @@
       <c r="Q32" t="n">
         <v>1105</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2407,6 +2887,21 @@
       <c r="Q33" t="n">
         <v>1106</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2466,6 +2961,21 @@
       <c r="Q34" t="n">
         <v>1107</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2525,6 +3035,21 @@
       <c r="Q35" t="n">
         <v>1108</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2584,6 +3109,21 @@
       <c r="Q36" t="n">
         <v>1109</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2643,6 +3183,21 @@
       <c r="Q37" t="n">
         <v>1110</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2702,6 +3257,21 @@
       <c r="Q38" t="n">
         <v>1111</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2761,6 +3331,21 @@
       <c r="Q39" t="n">
         <v>1112</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2820,6 +3405,21 @@
       <c r="Q40" t="n">
         <v>1113</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2879,6 +3479,21 @@
       <c r="Q41" t="n">
         <v>1114</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2938,6 +3553,21 @@
       <c r="Q42" t="n">
         <v>1115</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2997,6 +3627,21 @@
       <c r="Q43" t="n">
         <v>1116</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3056,6 +3701,21 @@
       <c r="Q44" t="n">
         <v>1117</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3115,6 +3775,21 @@
       <c r="Q45" t="n">
         <v>1118</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3173,6 +3848,21 @@
       </c>
       <c r="Q46" t="n">
         <v>1119</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3233,6 +3923,21 @@
       <c r="Q47" t="n">
         <v>1120</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3292,6 +3997,21 @@
       <c r="Q48" t="n">
         <v>1121</v>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3351,6 +4071,21 @@
       <c r="Q49" t="n">
         <v>1122</v>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3410,6 +4145,21 @@
       <c r="Q50" t="n">
         <v>1123</v>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3469,6 +4219,21 @@
       <c r="Q51" t="n">
         <v>1124</v>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3528,6 +4293,21 @@
       <c r="Q52" t="n">
         <v>1125</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3587,6 +4367,21 @@
       <c r="Q53" t="n">
         <v>1126</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3646,6 +4441,21 @@
       <c r="Q54" t="n">
         <v>1127</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3705,6 +4515,21 @@
       <c r="Q55" t="n">
         <v>1128</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3763,6 +4588,21 @@
       </c>
       <c r="Q56" t="n">
         <v>1129</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -3823,6 +4663,21 @@
       <c r="Q57" t="n">
         <v>1130</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3882,6 +4737,21 @@
       <c r="Q58" t="n">
         <v>1131</v>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3940,6 +4810,21 @@
       </c>
       <c r="Q59" t="n">
         <v>1132</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4000,6 +4885,21 @@
       <c r="Q60" t="n">
         <v>1133</v>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4059,6 +4959,21 @@
       <c r="Q61" t="n">
         <v>1134</v>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4118,6 +5033,21 @@
       <c r="Q62" t="n">
         <v>1135</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4177,6 +5107,21 @@
       <c r="Q63" t="n">
         <v>1136</v>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4236,6 +5181,21 @@
       <c r="Q64" t="n">
         <v>1137</v>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4295,6 +5255,21 @@
       <c r="Q65" t="n">
         <v>1138</v>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4354,6 +5329,21 @@
       <c r="Q66" t="n">
         <v>1139</v>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4412,6 +5402,21 @@
       </c>
       <c r="Q67" t="n">
         <v>1140</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4472,6 +5477,21 @@
       <c r="Q68" t="n">
         <v>1141</v>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4531,6 +5551,21 @@
       <c r="Q69" t="n">
         <v>1142</v>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4589,6 +5624,21 @@
       </c>
       <c r="Q70" t="n">
         <v>1143</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -4649,6 +5699,21 @@
       <c r="Q71" t="n">
         <v>1144</v>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4708,6 +5773,21 @@
       <c r="Q72" t="n">
         <v>1145</v>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4766,6 +5846,21 @@
       </c>
       <c r="Q73" t="n">
         <v>1146</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -4826,6 +5921,21 @@
       <c r="Q74" t="n">
         <v>1147</v>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4885,6 +5995,21 @@
       <c r="Q75" t="n">
         <v>1148</v>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4943,6 +6068,21 @@
       </c>
       <c r="Q76" t="n">
         <v>1149</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -5003,6 +6143,21 @@
       <c r="Q77" t="n">
         <v>1150</v>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5062,6 +6217,21 @@
       <c r="Q78" t="n">
         <v>1151</v>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5121,6 +6291,21 @@
       <c r="Q79" t="n">
         <v>1152</v>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5180,6 +6365,21 @@
       <c r="Q80" t="n">
         <v>1153</v>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5239,6 +6439,21 @@
       <c r="Q81" t="n">
         <v>1154</v>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5297,6 +6512,21 @@
       </c>
       <c r="Q82" t="n">
         <v>1155</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -5357,6 +6587,21 @@
       <c r="Q83" t="n">
         <v>1156</v>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5416,6 +6661,21 @@
       <c r="Q84" t="n">
         <v>1157</v>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5475,6 +6735,21 @@
       <c r="Q85" t="n">
         <v>1158</v>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5534,6 +6809,21 @@
       <c r="Q86" t="n">
         <v>1159</v>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5593,6 +6883,21 @@
       <c r="Q87" t="n">
         <v>1160</v>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5652,6 +6957,21 @@
       <c r="Q88" t="n">
         <v>1161</v>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5711,6 +7031,21 @@
       <c r="Q89" t="n">
         <v>1162</v>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5770,6 +7105,21 @@
       <c r="Q90" t="n">
         <v>1163</v>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5829,6 +7179,21 @@
       <c r="Q91" t="n">
         <v>1164</v>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5888,6 +7253,21 @@
       <c r="Q92" t="n">
         <v>1165</v>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5947,6 +7327,21 @@
       <c r="Q93" t="n">
         <v>1166</v>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6006,6 +7401,21 @@
       <c r="Q94" t="n">
         <v>1167</v>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6064,6 +7474,21 @@
       </c>
       <c r="Q95" t="n">
         <v>1168</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -6124,6 +7549,21 @@
       <c r="Q96" t="n">
         <v>1169</v>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6183,6 +7623,21 @@
       <c r="Q97" t="n">
         <v>1170</v>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6242,6 +7697,21 @@
       <c r="Q98" t="n">
         <v>1171</v>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6301,6 +7771,21 @@
       <c r="Q99" t="n">
         <v>1172</v>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6359,6 +7844,21 @@
       </c>
       <c r="Q100" t="n">
         <v>1173</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -6419,6 +7919,21 @@
       <c r="Q101" t="n">
         <v>1174</v>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6478,6 +7993,21 @@
       <c r="Q102" t="n">
         <v>1175</v>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6537,6 +8067,21 @@
       <c r="Q103" t="n">
         <v>1176</v>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6596,6 +8141,21 @@
       <c r="Q104" t="n">
         <v>1177</v>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6655,6 +8215,21 @@
       <c r="Q105" t="n">
         <v>1178</v>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6714,6 +8289,21 @@
       <c r="Q106" t="n">
         <v>1179</v>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6773,6 +8363,21 @@
       <c r="Q107" t="n">
         <v>1180</v>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6832,6 +8437,21 @@
       <c r="Q108" t="n">
         <v>1181</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6891,6 +8511,21 @@
       <c r="Q109" t="n">
         <v>1182</v>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6950,6 +8585,21 @@
       <c r="Q110" t="n">
         <v>1183</v>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7009,6 +8659,21 @@
       <c r="Q111" t="n">
         <v>1184</v>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7068,6 +8733,21 @@
       <c r="Q112" t="n">
         <v>1185</v>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7127,6 +8807,21 @@
       <c r="Q113" t="n">
         <v>1186</v>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7186,6 +8881,21 @@
       <c r="Q114" t="n">
         <v>1187</v>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7245,6 +8955,21 @@
       <c r="Q115" t="n">
         <v>1188</v>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7303,6 +9028,21 @@
       </c>
       <c r="Q116" t="n">
         <v>1189</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -7363,6 +9103,21 @@
       <c r="Q117" t="n">
         <v>1190</v>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7422,6 +9177,21 @@
       <c r="Q118" t="n">
         <v>1191</v>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7481,6 +9251,21 @@
       <c r="Q119" t="n">
         <v>1192</v>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7539,6 +9324,21 @@
       </c>
       <c r="Q120" t="n">
         <v>1193</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -7599,6 +9399,21 @@
       <c r="Q121" t="n">
         <v>1194</v>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7658,6 +9473,21 @@
       <c r="Q122" t="n">
         <v>1195</v>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7717,6 +9547,21 @@
       <c r="Q123" t="n">
         <v>1196</v>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7776,6 +9621,21 @@
       <c r="Q124" t="n">
         <v>1197</v>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7835,6 +9695,21 @@
       <c r="Q125" t="n">
         <v>1198</v>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7894,6 +9769,21 @@
       <c r="Q126" t="n">
         <v>1199</v>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7953,6 +9843,21 @@
       <c r="Q127" t="n">
         <v>1200</v>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8012,6 +9917,21 @@
       <c r="Q128" t="n">
         <v>1201</v>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8071,6 +9991,21 @@
       <c r="Q129" t="n">
         <v>1202</v>
       </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8130,6 +10065,21 @@
       <c r="Q130" t="n">
         <v>1203</v>
       </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8189,6 +10139,21 @@
       <c r="Q131" t="n">
         <v>1204</v>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8248,6 +10213,21 @@
       <c r="Q132" t="n">
         <v>1205</v>
       </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8307,6 +10287,21 @@
       <c r="Q133" t="n">
         <v>1206</v>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8366,6 +10361,21 @@
       <c r="Q134" t="n">
         <v>1207</v>
       </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8425,6 +10435,21 @@
       <c r="Q135" t="n">
         <v>1208</v>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8484,6 +10509,21 @@
       <c r="Q136" t="n">
         <v>1209</v>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8543,6 +10583,21 @@
       <c r="Q137" t="n">
         <v>1210</v>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8602,6 +10657,21 @@
       <c r="Q138" t="n">
         <v>1211</v>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8661,6 +10731,21 @@
       <c r="Q139" t="n">
         <v>1212</v>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8720,6 +10805,21 @@
       <c r="Q140" t="n">
         <v>1213</v>
       </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8779,6 +10879,21 @@
       <c r="Q141" t="n">
         <v>1214</v>
       </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8838,6 +10953,21 @@
       <c r="Q142" t="n">
         <v>1215</v>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8897,6 +11027,21 @@
       <c r="Q143" t="n">
         <v>1216</v>
       </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8956,6 +11101,21 @@
       <c r="Q144" t="n">
         <v>1217</v>
       </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9015,6 +11175,21 @@
       <c r="Q145" t="n">
         <v>1218</v>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9074,6 +11249,21 @@
       <c r="Q146" t="n">
         <v>1219</v>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9133,6 +11323,21 @@
       <c r="Q147" t="n">
         <v>1220</v>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9192,6 +11397,21 @@
       <c r="Q148" t="n">
         <v>1221</v>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9251,6 +11471,21 @@
       <c r="Q149" t="n">
         <v>1222</v>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9310,6 +11545,21 @@
       <c r="Q150" t="n">
         <v>1223</v>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9369,6 +11619,21 @@
       <c r="Q151" t="n">
         <v>1224</v>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9428,6 +11693,21 @@
       <c r="Q152" t="n">
         <v>1225</v>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9487,6 +11767,21 @@
       <c r="Q153" t="n">
         <v>1226</v>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9546,6 +11841,21 @@
       <c r="Q154" t="n">
         <v>1227</v>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9605,6 +11915,21 @@
       <c r="Q155" t="n">
         <v>1228</v>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9664,6 +11989,21 @@
       <c r="Q156" t="n">
         <v>1229</v>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9723,6 +12063,21 @@
       <c r="Q157" t="n">
         <v>1230</v>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9782,6 +12137,21 @@
       <c r="Q158" t="n">
         <v>1231</v>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9841,6 +12211,21 @@
       <c r="Q159" t="n">
         <v>1232</v>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9900,6 +12285,21 @@
       <c r="Q160" t="n">
         <v>1233</v>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9959,6 +12359,21 @@
       <c r="Q161" t="n">
         <v>1234</v>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10018,6 +12433,21 @@
       <c r="Q162" t="n">
         <v>1235</v>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10077,6 +12507,21 @@
       <c r="Q163" t="n">
         <v>1236</v>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10135,6 +12580,21 @@
       </c>
       <c r="Q164" t="n">
         <v>1237</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -10195,6 +12655,21 @@
       <c r="Q165" t="n">
         <v>1238</v>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10254,6 +12729,21 @@
       <c r="Q166" t="n">
         <v>1239</v>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10313,6 +12803,21 @@
       <c r="Q167" t="n">
         <v>1240</v>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10372,6 +12877,21 @@
       <c r="Q168" t="n">
         <v>1241</v>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10430,6 +12950,21 @@
       </c>
       <c r="Q169" t="n">
         <v>1242</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -10490,6 +13025,21 @@
       <c r="Q170" t="n">
         <v>1243</v>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10549,6 +13099,21 @@
       <c r="Q171" t="n">
         <v>1244</v>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10608,6 +13173,21 @@
       <c r="Q172" t="n">
         <v>1245</v>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10667,6 +13247,21 @@
       <c r="Q173" t="n">
         <v>1246</v>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10726,6 +13321,21 @@
       <c r="Q174" t="n">
         <v>1247</v>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10785,6 +13395,21 @@
       <c r="Q175" t="n">
         <v>1248</v>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10844,6 +13469,21 @@
       <c r="Q176" t="n">
         <v>1249</v>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10903,6 +13543,21 @@
       <c r="Q177" t="n">
         <v>1250</v>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10962,6 +13617,21 @@
       <c r="Q178" t="n">
         <v>1251</v>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11020,6 +13690,21 @@
       </c>
       <c r="Q179" t="n">
         <v>1252</v>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -11080,6 +13765,21 @@
       <c r="Q180" t="n">
         <v>1253</v>
       </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11139,6 +13839,21 @@
       <c r="Q181" t="n">
         <v>1254</v>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11198,6 +13913,21 @@
       <c r="Q182" t="n">
         <v>1255</v>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11257,6 +13987,21 @@
       <c r="Q183" t="n">
         <v>1256</v>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11316,6 +14061,21 @@
       <c r="Q184" t="n">
         <v>1257</v>
       </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11375,6 +14135,21 @@
       <c r="Q185" t="n">
         <v>1258</v>
       </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11434,6 +14209,21 @@
       <c r="Q186" t="n">
         <v>1259</v>
       </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11493,6 +14283,21 @@
       <c r="Q187" t="n">
         <v>1260</v>
       </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11552,6 +14357,21 @@
       <c r="Q188" t="n">
         <v>1261</v>
       </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11611,6 +14431,21 @@
       <c r="Q189" t="n">
         <v>1262</v>
       </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11670,6 +14505,21 @@
       <c r="Q190" t="n">
         <v>1263</v>
       </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11729,6 +14579,21 @@
       <c r="Q191" t="n">
         <v>1264</v>
       </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11788,6 +14653,21 @@
       <c r="Q192" t="n">
         <v>1265</v>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11847,6 +14727,21 @@
       <c r="Q193" t="n">
         <v>1266</v>
       </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11905,6 +14800,21 @@
       </c>
       <c r="Q194" t="n">
         <v>1267</v>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="195">
@@ -11965,6 +14875,21 @@
       <c r="Q195" t="n">
         <v>1268</v>
       </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12024,6 +14949,21 @@
       <c r="Q196" t="n">
         <v>1269</v>
       </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12083,6 +15023,21 @@
       <c r="Q197" t="n">
         <v>1270</v>
       </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12142,6 +15097,21 @@
       <c r="Q198" t="n">
         <v>1271</v>
       </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12201,6 +15171,21 @@
       <c r="Q199" t="n">
         <v>1272</v>
       </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12260,6 +15245,21 @@
       <c r="Q200" t="n">
         <v>1273</v>
       </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12319,6 +15319,21 @@
       <c r="Q201" t="n">
         <v>1274</v>
       </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12378,6 +15393,21 @@
       <c r="Q202" t="n">
         <v>1275</v>
       </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12437,6 +15467,21 @@
       <c r="Q203" t="n">
         <v>1276</v>
       </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12496,6 +15541,21 @@
       <c r="Q204" t="n">
         <v>1277</v>
       </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12555,6 +15615,21 @@
       <c r="Q205" t="n">
         <v>1278</v>
       </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12614,6 +15689,21 @@
       <c r="Q206" t="n">
         <v>1279</v>
       </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12673,6 +15763,21 @@
       <c r="Q207" t="n">
         <v>1280</v>
       </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12732,6 +15837,21 @@
       <c r="Q208" t="n">
         <v>1281</v>
       </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12791,6 +15911,21 @@
       <c r="Q209" t="n">
         <v>1282</v>
       </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12850,6 +15985,21 @@
       <c r="Q210" t="n">
         <v>1283</v>
       </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12909,6 +16059,21 @@
       <c r="Q211" t="n">
         <v>1284</v>
       </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12968,6 +16133,21 @@
       <c r="Q212" t="n">
         <v>1285</v>
       </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13027,6 +16207,21 @@
       <c r="Q213" t="n">
         <v>1286</v>
       </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13086,6 +16281,21 @@
       <c r="Q214" t="n">
         <v>1287</v>
       </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13145,6 +16355,21 @@
       <c r="Q215" t="n">
         <v>1288</v>
       </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13204,6 +16429,21 @@
       <c r="Q216" t="n">
         <v>1289</v>
       </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13263,6 +16503,21 @@
       <c r="Q217" t="n">
         <v>1290</v>
       </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13322,6 +16577,21 @@
       <c r="Q218" t="n">
         <v>1291</v>
       </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13381,6 +16651,21 @@
       <c r="Q219" t="n">
         <v>1292</v>
       </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13439,6 +16724,21 @@
       </c>
       <c r="Q220" t="n">
         <v>1293</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -13499,6 +16799,21 @@
       <c r="Q221" t="n">
         <v>1294</v>
       </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13558,6 +16873,21 @@
       <c r="Q222" t="n">
         <v>1295</v>
       </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13616,6 +16946,21 @@
       </c>
       <c r="Q223" t="n">
         <v>1296</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
       </c>
     </row>
   </sheetData>
